--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
@@ -247,10 +247,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -306,8 +306,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,48 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,13 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -406,8 +398,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,16 +422,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +589,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,61 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,13 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,55 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,26 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,17 +767,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,11 +802,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,142 +830,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3909,11 +3906,11 @@
   <dimension ref="A1:AO430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4313,7 +4310,7 @@
         <v>-494.59</v>
       </c>
       <c r="J6" s="15">
-        <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J12" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="16">
@@ -4353,7 +4350,7 @@
       <c r="AK6" s="35"/>
       <c r="AL6" s="35"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="41" t="s">
+      <c r="AO6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4386,11 +4383,11 @@
         <v>-473.31</v>
       </c>
       <c r="J7" s="17">
-        <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K7" s="18">
-        <f>(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K12" si="1">(B7-B6)/B6</f>
         <v>-0.0430167597765363</v>
       </c>
       <c r="L7" s="9"/>
@@ -4400,7 +4397,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="22" t="str">
-        <f t="shared" ref="R7:R12" si="0">IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" ref="R7:R12" si="2">IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="S7" s="9"/>
@@ -4427,7 +4424,7 @@
       <c r="AK7" s="35"/>
       <c r="AL7" s="35"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="41" t="s">
+      <c r="AO7" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4460,11 +4457,11 @@
         <v>-501.77</v>
       </c>
       <c r="J8" s="15">
-        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" s="18">
-        <f>(B8-B7)/B7</f>
+        <f t="shared" si="1"/>
         <v>0.0601284296555751</v>
       </c>
       <c r="L8" s="9"/>
@@ -4474,7 +4471,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S8" s="9"/>
@@ -4504,7 +4501,7 @@
       <c r="AK8" s="35"/>
       <c r="AL8" s="35"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="41" t="s">
+      <c r="AO8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4537,11 +4534,11 @@
         <v>-462.25</v>
       </c>
       <c r="J9" s="17">
-        <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K9" s="18">
-        <f>(B9-B8)/B8</f>
+        <f t="shared" si="1"/>
         <v>-0.0110132158590308</v>
       </c>
       <c r="L9" s="9"/>
@@ -4551,7 +4548,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S9" s="9"/>
@@ -4581,7 +4578,7 @@
       <c r="AK9" s="35"/>
       <c r="AL9" s="35"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="41" t="s">
+      <c r="AO9" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4614,11 +4611,11 @@
         <v>-492.1</v>
       </c>
       <c r="J10" s="15">
-        <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K10" s="18">
-        <f>(B10-B9)/B9</f>
+        <f t="shared" si="1"/>
         <v>-0.00835189309576849</v>
       </c>
       <c r="L10" s="9"/>
@@ -4628,7 +4625,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S10" s="9"/>
@@ -4658,7 +4655,7 @@
       <c r="AK10" s="35"/>
       <c r="AL10" s="35"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="41" t="s">
+      <c r="AO10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4691,11 +4688,11 @@
         <v>-529.4</v>
       </c>
       <c r="J11" s="15">
-        <f>IF(B11&gt;(D11-(D11-E11)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K11" s="18">
-        <f>(B11-B10)/B10</f>
+        <f t="shared" si="1"/>
         <v>0.0758001122964627</v>
       </c>
       <c r="L11" s="9"/>
@@ -4705,7 +4702,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S11" s="9"/>
@@ -4735,7 +4732,7 @@
       <c r="AK11" s="35"/>
       <c r="AL11" s="35"/>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="41" t="s">
+      <c r="AO11" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4768,11 +4765,11 @@
         <v>-582.46</v>
       </c>
       <c r="J12" s="15">
-        <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K12" s="18">
-        <f>(B12-B11)/B11</f>
+        <f t="shared" si="1"/>
         <v>0.100208768267223</v>
       </c>
       <c r="L12" s="9"/>
@@ -4782,7 +4779,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S12" s="9"/>
@@ -4812,7 +4809,7 @@
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
       <c r="AN12" s="4"/>
-      <c r="AO12" s="41" t="s">
+      <c r="AO12" s="9" t="s">
         <v>48</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
@@ -246,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -294,14 +294,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,35 +315,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,17 +330,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +362,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,8 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +408,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -424,14 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,61 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +608,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,31 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,25 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,38 +732,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,13 +762,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,9 +794,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,8 +821,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,148 +831,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,10 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,25 +1004,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3602,6 +3602,11 @@
           </cell>
         </row>
         <row r="48">
+          <cell r="A48" t="str">
+            <v>JG_0000040</v>
+          </cell>
+        </row>
+        <row r="48">
           <cell r="C48" t="str">
             <v>001979</v>
           </cell>
@@ -3625,6 +3630,11 @@
           </cell>
           <cell r="J48">
             <v>1447</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>JG_0000041</v>
           </cell>
         </row>
         <row r="49">
@@ -3913,14 +3923,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AO430"/>
+  <dimension ref="A1:AO428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI13" sqref="AI13"/>
+      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4322,7 +4332,7 @@
         <v>-460.05</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" ref="J6:J12" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J13" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="21">
@@ -4399,7 +4409,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="23">
-        <f t="shared" ref="K7:K12" si="1">(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K13" si="1">(B7-B6)/B6</f>
         <v>-0.0430167597765363</v>
       </c>
       <c r="L7" s="10"/>
@@ -4409,7 +4419,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="27" t="str">
-        <f t="shared" ref="R7:R12" si="2">IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" ref="R7:R13" si="2">IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="S7" s="10"/>
@@ -4854,11 +4864,11 @@
         <v>-582.46</v>
       </c>
       <c r="J13" s="20">
-        <f>IF(B13&gt;(D13-(D13-E13)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K13" s="23">
-        <f>(B13-B12)/B12</f>
+        <f t="shared" si="1"/>
         <v>0.0322580645161292</v>
       </c>
       <c r="L13" s="10"/>
@@ -4868,7 +4878,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="27" t="str">
-        <f>IF(B13&lt;G13,"是","否")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S13" s="10"/>
@@ -4898,29 +4908,56 @@
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
+      <c r="AO13" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="9">
-        <v>44604</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+        <v>44606</v>
+      </c>
+      <c r="B14" s="10">
+        <v>21.26</v>
+      </c>
+      <c r="C14" s="10">
+        <v>21.88</v>
+      </c>
+      <c r="D14" s="10">
+        <v>22.58</v>
+      </c>
+      <c r="E14" s="10">
+        <v>20.57</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5.206</v>
+      </c>
+      <c r="G14" s="10">
+        <v>18.48</v>
+      </c>
+      <c r="H14" s="10">
+        <v>17.28</v>
+      </c>
+      <c r="I14" s="10">
+        <v>-601.25</v>
+      </c>
+      <c r="J14" s="22">
+        <f>IF(B14&gt;(D14-(D14-E14)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K14" s="23">
+        <f>(B14-B13)/B13</f>
+        <v>-0.0229779411764706</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="27" t="str">
+        <f>IF(B14&lt;G14,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -4935,8 +4972,14 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="40"/>
+      <c r="AG14" s="39">
+        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$45,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$45,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
+        <v>0.19170403587444</v>
+      </c>
+      <c r="AH14" s="41">
+        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$47,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$47,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <v>0.16941694169417</v>
+      </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
@@ -4946,7 +4989,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="9">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4990,7 +5033,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="9">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5034,7 +5077,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="9">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5078,7 +5121,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="9">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5122,7 +5165,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="9">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5166,7 +5209,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="9">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5210,7 +5253,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="9">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5254,7 +5297,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="9">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5298,7 +5341,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="9">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5342,7 +5385,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="9">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5386,7 +5429,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="9">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5430,7 +5473,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="9">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5474,7 +5517,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="9">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5518,7 +5561,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="9">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5562,7 +5605,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="9">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5606,7 +5649,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="9">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5650,7 +5693,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="9">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5694,7 +5737,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="9">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5738,7 +5781,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="9">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5782,7 +5825,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="9">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -5826,7 +5869,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="9">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5870,7 +5913,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="9">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5914,7 +5957,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="9">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5958,7 +6001,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="9">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6002,7 +6045,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="9">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6046,7 +6089,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="9">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -6090,7 +6133,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="9">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6134,7 +6177,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="9">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -6178,7 +6221,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="9">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -6222,7 +6265,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="9">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6266,7 +6309,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="9">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -6310,7 +6353,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="9">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -6354,7 +6397,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="9">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -6398,7 +6441,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="9">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -6442,7 +6485,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="9">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -6486,7 +6529,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="9">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -6530,7 +6573,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="9">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -6574,7 +6617,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="9">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -6618,7 +6661,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="9">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -6662,7 +6705,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="9">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -6706,7 +6749,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="9">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -6750,7 +6793,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="9">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -6794,7 +6837,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="9">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -6836,95 +6879,52 @@
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
     </row>
-    <row r="58" spans="1:41">
-      <c r="A58" s="9">
-        <v>44648</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="40"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="40"/>
-      <c r="AL58" s="40"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-    </row>
-    <row r="59" spans="1:41">
-      <c r="A59" s="9">
-        <v>44649</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="40"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="40"/>
-      <c r="AK59" s="40"/>
-      <c r="AL59" s="40"/>
-      <c r="AN59" s="5"/>
-      <c r="AO59" s="5"/>
-    </row>
-    <row r="60" spans="1:39">
+    <row r="58" spans="1:39">
+      <c r="A58" s="11"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="AM58" s="44"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="11"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6945,7 +6945,6 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="AM60" s="44"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="11"/>
@@ -15042,50 +15041,6 @@
       <c r="V428" s="3"/>
       <c r="W428" s="3"/>
       <c r="Y428" s="3"/>
-    </row>
-    <row r="429" spans="1:25">
-      <c r="A429" s="11"/>
-      <c r="B429" s="3"/>
-      <c r="C429" s="3"/>
-      <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="15"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="J429" s="3"/>
-      <c r="K429" s="3"/>
-      <c r="L429" s="3"/>
-      <c r="M429" s="3"/>
-      <c r="N429" s="3"/>
-      <c r="O429" s="3"/>
-      <c r="P429" s="3"/>
-      <c r="Q429" s="3"/>
-      <c r="U429" s="3"/>
-      <c r="V429" s="3"/>
-      <c r="W429" s="3"/>
-      <c r="Y429" s="3"/>
-    </row>
-    <row r="430" spans="1:25">
-      <c r="A430" s="11"/>
-      <c r="B430" s="3"/>
-      <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="15"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="J430" s="3"/>
-      <c r="K430" s="3"/>
-      <c r="L430" s="3"/>
-      <c r="M430" s="3"/>
-      <c r="N430" s="3"/>
-      <c r="O430" s="3"/>
-      <c r="P430" s="3"/>
-      <c r="Q430" s="3"/>
-      <c r="U430" s="3"/>
-      <c r="V430" s="3"/>
-      <c r="W430" s="3"/>
-      <c r="Y430" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26520" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,11 +246,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -294,67 +294,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,10 +316,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,8 +347,68 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,22 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,14 +431,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,43 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,31 +608,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,31 +638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,8 +732,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,16 +747,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -777,21 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -803,26 +812,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,148 +831,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,10 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,25 +1004,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3926,7 +3926,7 @@
   <dimension ref="A1:AO428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4332,7 +4332,7 @@
         <v>-460.05</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" ref="J6:J13" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J14" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="21">
@@ -4409,7 +4409,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="23">
-        <f t="shared" ref="K7:K13" si="1">(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K14" si="1">(B7-B6)/B6</f>
         <v>-0.0430167597765363</v>
       </c>
       <c r="L7" s="10"/>
@@ -4419,7 +4419,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="27" t="str">
-        <f t="shared" ref="R7:R13" si="2">IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" ref="R7:R14" si="2">IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="S7" s="10"/>
@@ -4941,11 +4941,11 @@
         <v>-601.25</v>
       </c>
       <c r="J14" s="22">
-        <f>IF(B14&gt;(D14-(D14-E14)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K14" s="23">
-        <f>(B14-B13)/B13</f>
+        <f t="shared" si="1"/>
         <v>-0.0229779411764706</v>
       </c>
       <c r="L14" s="10"/>
@@ -4955,7 +4955,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="27" t="str">
-        <f>IF(B14&lt;G14,"是","否")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="S14" s="10"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/中坚科技-JH_00057.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26520" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,10 +248,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -294,7 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,11 +307,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,10 +322,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,31 +362,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,29 +400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,22 +408,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,37 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +536,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,115 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,8 +732,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,30 +743,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +757,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -812,17 +803,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,22 +831,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,100 +858,100 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,19 +960,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3926,11 +3926,11 @@
   <dimension ref="A1:AO428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
